--- a/doc/acl_decoder.xlsx
+++ b/doc/acl_decoder.xlsx
@@ -1292,10 +1292,10 @@
     <t>F:READ_DATA D:LIST_DIRECTORY</t>
   </si>
   <si>
-    <t xml:space="preserve">Version 7 - adds 'rwx' translations &amp; </t>
-  </si>
-  <si>
-    <t>14 standard ACL permissions bits and flag bits (next sheet) mapped to various cross-platform representations and NFS4-normalized hex values</t>
+    <t>Version 7</t>
+  </si>
+  <si>
+    <t>ACL decoder: 14 standard ACL permissions bits and a few flag bits (next sheet) mapped to various platform-specific representations and RFC-7530-normalized hex values</t>
   </si>
 </sst>
 </file>
@@ -3449,8 +3449,8 @@
   <dimension ref="A1:AH165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/doc/acl_decoder.xlsx
+++ b/doc/acl_decoder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsneed/Bobware/git/pwalk/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CEE8D2-7280-BE4D-966F-0B39D0A6614F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76766C8-5675-6549-957C-3C80EAD0C15B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="348">
   <si>
     <t>r</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>Windows compact form (ICACLS, etc)</t>
+  </si>
+  <si>
+    <t>delete_child (dir)</t>
   </si>
 </sst>
 </file>
@@ -4165,8 +4168,8 @@
   <dimension ref="A1:AH192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="3" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10124,7 +10127,7 @@
     </row>
     <row r="129" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="68" t="s">
-        <v>216</v>
+        <v>347</v>
       </c>
       <c r="B129" s="97" t="s">
         <v>171</v>

--- a/doc/acl_decoder.xlsx
+++ b/doc/acl_decoder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsneed/Bobware/git/pwalk/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76766C8-5675-6549-957C-3C80EAD0C15B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9CBCED-4A78-2E45-BABB-ECB0C2A91EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -701,9 +701,6 @@
   </si>
   <si>
     <t>read</t>
-  </si>
-  <si>
-    <t>Write</t>
   </si>
   <si>
     <t>append</t>
@@ -1436,6 +1433,9 @@
   <si>
     <t>delete_child (dir)</t>
   </si>
+  <si>
+    <t>write</t>
+  </si>
 </sst>
 </file>
 
@@ -1461,6 +1461,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1490,12 +1491,14 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1509,45 +1512,53 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Courier"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1560,6 +1571,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2468,11 +2480,128 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -2483,127 +2612,10 @@
       <right style="slantDashDot">
         <color auto="1"/>
       </right>
-      <top style="slantDashDot">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color auto="1"/>
-      </left>
-      <right style="slantDashDot">
-        <color auto="1"/>
-      </right>
-      <top style="slantDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="slantDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="slantDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="slantDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="slantDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="slantDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3494,7 +3506,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3531,13 +3543,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3550,39 +3562,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3616,10 +3628,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4168,8 +4180,8 @@
   <dimension ref="A1:AH192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <pane ySplit="3" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4185,7 +4197,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="290" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="291"/>
       <c r="C1" s="210">
@@ -4387,7 +4399,7 @@
     </row>
     <row r="3" spans="1:34" s="267" customFormat="1" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" s="269" t="s">
         <v>178</v>
@@ -4404,19 +4416,19 @@
       <c r="L3" s="271"/>
       <c r="M3" s="271"/>
       <c r="N3" s="273" t="s">
+        <v>300</v>
+      </c>
+      <c r="O3" s="270" t="s">
         <v>301</v>
       </c>
-      <c r="O3" s="270" t="s">
+      <c r="P3" s="271" t="s">
         <v>302</v>
       </c>
-      <c r="P3" s="271" t="s">
+      <c r="Q3" s="271" t="s">
         <v>303</v>
       </c>
-      <c r="Q3" s="271" t="s">
+      <c r="R3" s="272" t="s">
         <v>304</v>
-      </c>
-      <c r="R3" s="272" t="s">
-        <v>305</v>
       </c>
       <c r="S3" s="274"/>
       <c r="T3" s="275"/>
@@ -4424,37 +4436,37 @@
       <c r="V3" s="276"/>
       <c r="W3" s="274"/>
       <c r="X3" s="275" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y3" s="277" t="s">
         <v>306</v>
       </c>
-      <c r="Y3" s="277" t="s">
+      <c r="Z3" s="272" t="s">
         <v>307</v>
       </c>
-      <c r="Z3" s="272" t="s">
+      <c r="AA3" s="270" t="s">
         <v>308</v>
       </c>
-      <c r="AA3" s="270" t="s">
+      <c r="AB3" s="271" t="s">
         <v>309</v>
       </c>
-      <c r="AB3" s="271" t="s">
+      <c r="AC3" s="271" t="s">
         <v>310</v>
       </c>
-      <c r="AC3" s="271" t="s">
+      <c r="AD3" s="272" t="s">
         <v>311</v>
       </c>
-      <c r="AD3" s="272" t="s">
+      <c r="AE3" s="270" t="s">
         <v>312</v>
       </c>
-      <c r="AE3" s="270" t="s">
+      <c r="AF3" s="271" t="s">
         <v>313</v>
       </c>
-      <c r="AF3" s="271" t="s">
+      <c r="AG3" s="271" t="s">
         <v>314</v>
       </c>
-      <c r="AG3" s="271" t="s">
+      <c r="AH3" s="278" t="s">
         <v>315</v>
-      </c>
-      <c r="AH3" s="278" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="20" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4494,7 +4506,7 @@
     </row>
     <row r="5" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="132" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="118"/>
@@ -4602,7 +4614,7 @@
     </row>
     <row r="7" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" s="88"/>
       <c r="C7" s="78"/>
@@ -4637,10 +4649,10 @@
       <c r="V7" s="156"/>
       <c r="W7" s="155"/>
       <c r="X7" s="156" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Y7" s="156" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z7" s="81" t="s">
         <v>135</v>
@@ -4742,7 +4754,7 @@
     </row>
     <row r="9" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="237" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B9" s="238"/>
       <c r="C9" s="239"/>
@@ -4760,13 +4772,13 @@
         <v>89</v>
       </c>
       <c r="O9" s="241" t="s">
+        <v>260</v>
+      </c>
+      <c r="P9" s="239" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q9" s="239" t="s">
         <v>261</v>
-      </c>
-      <c r="P9" s="239" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q9" s="239" t="s">
-        <v>262</v>
       </c>
       <c r="R9" s="239" t="s">
         <v>5</v>
@@ -4783,31 +4795,31 @@
         <v>80</v>
       </c>
       <c r="Z9" s="244" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA9" s="245" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB9" s="239" t="s">
         <v>269</v>
       </c>
-      <c r="AA9" s="245" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB9" s="239" t="s">
-        <v>270</v>
-      </c>
       <c r="AC9" s="239" t="s">
         <v>31</v>
       </c>
       <c r="AD9" s="246" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE9" s="247" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF9" s="247" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG9" s="239" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH9" s="248" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:34" s="233" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4848,7 +4860,7 @@
     </row>
     <row r="11" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="118"/>
@@ -5435,7 +5447,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="34"/>
@@ -5718,7 +5730,7 @@
     </row>
     <row r="32" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="135" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" s="133"/>
       <c r="C32" s="118"/>
@@ -5792,7 +5804,7 @@
     </row>
     <row r="34" spans="1:34" s="108" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="182" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="118"/>
@@ -5830,10 +5842,10 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B35" s="86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -5884,7 +5896,7 @@
     </row>
     <row r="36" spans="1:34" s="108" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B36" s="93" t="s">
         <v>186</v>
@@ -5934,10 +5946,10 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -5990,10 +6002,10 @@
     </row>
     <row r="38" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="109" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -6046,10 +6058,10 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" s="109" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -6104,10 +6116,10 @@
     </row>
     <row r="40" spans="1:34" s="108" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
@@ -6158,10 +6170,10 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" s="86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -6210,10 +6222,10 @@
     </row>
     <row r="42" spans="1:34" s="108" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B42" s="93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
@@ -6258,7 +6270,7 @@
     </row>
     <row r="43" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" s="114"/>
       <c r="C43" s="113"/>
@@ -6275,7 +6287,7 @@
       <c r="N43" s="115"/>
       <c r="O43" s="217"/>
       <c r="P43" s="218" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q43" s="218"/>
       <c r="R43" s="219"/>
@@ -6287,7 +6299,7 @@
       <c r="X43" s="207"/>
       <c r="Y43" s="207"/>
       <c r="Z43" s="222" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA43" s="221"/>
       <c r="AB43" s="207"/>
@@ -6300,7 +6312,7 @@
     </row>
     <row r="44" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="211" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B44" s="212"/>
       <c r="C44" s="213"/>
@@ -6316,12 +6328,12 @@
       <c r="M44" s="214"/>
       <c r="N44" s="216"/>
       <c r="O44" s="196" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P44" s="220"/>
       <c r="Q44" s="220"/>
       <c r="R44" s="198" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S44" s="223"/>
       <c r="T44" s="224"/>
@@ -7464,7 +7476,7 @@
     </row>
     <row r="72" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="183" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B72" s="133"/>
       <c r="C72" s="118"/>
@@ -8447,7 +8459,7 @@
     </row>
     <row r="91" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="132" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B91" s="133"/>
       <c r="C91" s="118"/>
@@ -9611,7 +9623,7 @@
     </row>
     <row r="117" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="131" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B117" s="121"/>
       <c r="C117" s="122"/>
@@ -9649,7 +9661,7 @@
     </row>
     <row r="118" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="134" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B118" s="127"/>
       <c r="C118" s="128"/>
@@ -9775,7 +9787,7 @@
     </row>
     <row r="121" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="68" t="s">
-        <v>224</v>
+        <v>347</v>
       </c>
       <c r="B121" s="97" t="s">
         <v>155</v>
@@ -9863,7 +9875,7 @@
     </row>
     <row r="123" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B123" s="97" t="s">
         <v>160</v>
@@ -10039,7 +10051,7 @@
     </row>
     <row r="127" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B127" s="97" t="s">
         <v>170</v>
@@ -10083,7 +10095,7 @@
     </row>
     <row r="128" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B128" s="97" t="s">
         <v>170</v>
@@ -10127,7 +10139,7 @@
     </row>
     <row r="129" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B129" s="97" t="s">
         <v>171</v>
@@ -10259,7 +10271,7 @@
     </row>
     <row r="132" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B132" s="97" t="s">
         <v>172</v>
@@ -10435,7 +10447,7 @@
     </row>
     <row r="136" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B136" s="97" t="s">
         <v>165</v>
@@ -10551,7 +10563,7 @@
     </row>
     <row r="139" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="131" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B139" s="121"/>
       <c r="C139" s="122"/>
@@ -10589,7 +10601,7 @@
     </row>
     <row r="140" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B140" s="127"/>
       <c r="C140" s="128"/>
@@ -10663,7 +10675,7 @@
     </row>
     <row r="142" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="184" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B142" s="185"/>
       <c r="C142" s="118"/>
@@ -10701,7 +10713,7 @@
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A143" s="73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B143" s="98" t="s">
         <v>181</v>
@@ -10745,7 +10757,7 @@
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A144" s="73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B144" s="98" t="s">
         <v>182</v>
@@ -10793,7 +10805,7 @@
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A145" s="73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B145" s="98" t="s">
         <v>183</v>
@@ -10843,10 +10855,10 @@
     </row>
     <row r="146" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A146" s="73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B146" s="98" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="9"/>
@@ -10895,7 +10907,7 @@
     </row>
     <row r="147" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A147" s="101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B147" s="102" t="s">
         <v>190</v>
@@ -10955,7 +10967,7 @@
     </row>
     <row r="148" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A148" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B148" s="98" t="s">
         <v>186</v>
@@ -11005,10 +11017,10 @@
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A149" s="73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B149" s="98" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="9"/>
@@ -11057,10 +11069,10 @@
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A150" s="73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B150" s="98" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="9"/>
@@ -11077,10 +11089,10 @@
         <v>31</v>
       </c>
       <c r="O150" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P150" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q150" s="9" t="s">
         <v>31</v>
@@ -11123,7 +11135,7 @@
     </row>
     <row r="151" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B151" s="98" t="s">
         <v>173</v>
@@ -11191,7 +11203,7 @@
     </row>
     <row r="152" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="186" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B152" s="187"/>
       <c r="C152" s="118"/>
@@ -11229,7 +11241,7 @@
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A153" s="73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B153" s="98" t="s">
         <v>169</v>
@@ -11266,12 +11278,12 @@
       <c r="AF153" s="9"/>
       <c r="AG153" s="9"/>
       <c r="AH153" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A154" s="73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B154" s="98" t="s">
         <v>155</v>
@@ -11307,13 +11319,13 @@
       <c r="AE154" s="8"/>
       <c r="AF154" s="9"/>
       <c r="AG154" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH154" s="10"/>
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A155" s="73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B155" s="98" t="s">
         <v>160</v>
@@ -11348,14 +11360,14 @@
       <c r="AD155" s="10"/>
       <c r="AE155" s="8"/>
       <c r="AF155" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG155" s="9"/>
       <c r="AH155" s="10"/>
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A156" s="73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B156" s="98" t="s">
         <v>166</v>
@@ -11389,7 +11401,7 @@
       <c r="AC156" s="9"/>
       <c r="AD156" s="10"/>
       <c r="AE156" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF156" s="9"/>
       <c r="AG156" s="9"/>
@@ -11397,7 +11409,7 @@
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A157" s="73" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B157" s="98" t="s">
         <v>164</v>
@@ -11430,7 +11442,7 @@
       <c r="AB157" s="9"/>
       <c r="AC157" s="9"/>
       <c r="AD157" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE157" s="8"/>
       <c r="AF157" s="9"/>
@@ -11439,7 +11451,7 @@
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A158" s="73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B158" s="98" t="s">
         <v>170</v>
@@ -11481,7 +11493,7 @@
     </row>
     <row r="159" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="73" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B159" s="97" t="s">
         <v>171</v>
@@ -11512,7 +11524,7 @@
       <c r="Z159" s="10"/>
       <c r="AA159" s="8"/>
       <c r="AB159" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC159" s="9"/>
       <c r="AD159" s="10"/>
@@ -11523,7 +11535,7 @@
     </row>
     <row r="160" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B160" s="97" t="s">
         <v>167</v>
@@ -11553,7 +11565,7 @@
       <c r="Y160" s="158"/>
       <c r="Z160" s="10"/>
       <c r="AA160" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB160" s="9"/>
       <c r="AC160" s="9"/>
@@ -11565,7 +11577,7 @@
     </row>
     <row r="161" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B161" s="97" t="s">
         <v>163</v>
@@ -11594,7 +11606,7 @@
       <c r="X161" s="158"/>
       <c r="Y161" s="158"/>
       <c r="Z161" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA161" s="8"/>
       <c r="AB161" s="9"/>
@@ -11607,7 +11619,7 @@
     </row>
     <row r="162" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B162" s="97" t="s">
         <v>172</v>
@@ -11649,7 +11661,7 @@
     </row>
     <row r="163" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B163" s="97" t="s">
         <v>168</v>
@@ -11669,7 +11681,7 @@
       <c r="O163" s="8"/>
       <c r="P163" s="9"/>
       <c r="Q163" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R163" s="10"/>
       <c r="S163" s="157"/>
@@ -11691,7 +11703,7 @@
     </row>
     <row r="164" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B164" s="97" t="s">
         <v>162</v>
@@ -11710,7 +11722,7 @@
       <c r="N164" s="48"/>
       <c r="O164" s="8"/>
       <c r="P164" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q164" s="9"/>
       <c r="R164" s="10"/>
@@ -11733,7 +11745,7 @@
     </row>
     <row r="165" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B165" s="97" t="s">
         <v>161</v>
@@ -11751,7 +11763,7 @@
       <c r="M165" s="9"/>
       <c r="N165" s="48"/>
       <c r="O165" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P165" s="9"/>
       <c r="Q165" s="9"/>
@@ -11775,7 +11787,7 @@
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A166" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B166" s="99" t="s">
         <v>165</v>
@@ -11817,7 +11829,7 @@
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" s="75" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B167" s="100"/>
       <c r="C167" s="2"/>
@@ -11855,7 +11867,7 @@
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A168" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B168" s="99"/>
       <c r="C168" s="5"/>
@@ -11894,7 +11906,7 @@
     <row r="170" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="171" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="262" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B171" s="185"/>
       <c r="C171" s="118"/>
@@ -11932,7 +11944,7 @@
     </row>
     <row r="172" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B172" s="97" t="s">
         <v>169</v>
@@ -11976,7 +11988,7 @@
     </row>
     <row r="173" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B173" s="97" t="s">
         <v>169</v>
@@ -12020,7 +12032,7 @@
     </row>
     <row r="174" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B174" s="97" t="s">
         <v>155</v>
@@ -12108,7 +12120,7 @@
     </row>
     <row r="176" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B176" s="97" t="s">
         <v>160</v>
@@ -12196,7 +12208,7 @@
     </row>
     <row r="178" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B178" s="97" t="s">
         <v>166</v>
@@ -12240,7 +12252,7 @@
     </row>
     <row r="179" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="68" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B179" s="97" t="s">
         <v>164</v>
@@ -12284,7 +12296,7 @@
     </row>
     <row r="180" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B180" s="97" t="s">
         <v>170</v>
@@ -12372,7 +12384,7 @@
     </row>
     <row r="182" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B182" s="97" t="s">
         <v>167</v>
@@ -12416,7 +12428,7 @@
     </row>
     <row r="183" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B183" s="97" t="s">
         <v>163</v>
@@ -12460,7 +12472,7 @@
     </row>
     <row r="184" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B184" s="97" t="s">
         <v>179</v>
@@ -12488,7 +12500,7 @@
       <c r="W184" s="173"/>
       <c r="X184" s="174"/>
       <c r="Y184" s="174" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z184" s="66"/>
       <c r="AA184" s="39"/>
@@ -12502,10 +12514,10 @@
     </row>
     <row r="185" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B185" s="97" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C185" s="68"/>
       <c r="D185" s="40"/>
@@ -12529,7 +12541,7 @@
       <c r="V185" s="175"/>
       <c r="W185" s="173"/>
       <c r="X185" s="174" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Y185" s="174"/>
       <c r="Z185" s="66"/>
@@ -12544,7 +12556,7 @@
     </row>
     <row r="186" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B186" s="97" t="s">
         <v>172</v>
@@ -12588,7 +12600,7 @@
     </row>
     <row r="187" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="68" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B187" s="97" t="s">
         <v>168</v>
@@ -12632,7 +12644,7 @@
     </row>
     <row r="188" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B188" s="97" t="s">
         <v>162</v>
@@ -12676,7 +12688,7 @@
     </row>
     <row r="189" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B189" s="97" t="s">
         <v>161</v>
@@ -12720,7 +12732,7 @@
     </row>
     <row r="190" spans="1:34" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B190" s="97" t="s">
         <v>165</v>
@@ -12800,16 +12812,16 @@
     </row>
     <row r="192" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="284" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q192" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA192" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -12885,7 +12897,7 @@
         <v>97</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>98</v>
@@ -12897,7 +12909,7 @@
         <v>220</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J2" s="42" t="s">
         <v>140</v>
@@ -12929,7 +12941,7 @@
         <v>82</v>
       </c>
       <c r="I3" s="71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J3" s="45" t="s">
         <v>107</v>
@@ -12961,7 +12973,7 @@
         <v>217</v>
       </c>
       <c r="I4" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>108</v>
@@ -12993,7 +13005,7 @@
         <v>218</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>114</v>
@@ -13025,7 +13037,7 @@
         <v>219</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>115</v>
@@ -13163,7 +13175,7 @@
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
@@ -13176,7 +13188,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">

--- a/doc/acl_decoder.xlsx
+++ b/doc/acl_decoder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsneed/Bobware/git/pwalk/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9CBCED-4A78-2E45-BABB-ECB0C2A91EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C06E91-551D-0B44-9CC7-BB895075FE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,9 +1220,6 @@
   </si>
   <si>
     <t>OneFS &amp; NFS4 keywords for 'Generic' bitmasks (compared with similar NFS4 masks) …</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt; OS X mappings &gt;&gt;&gt;</t>
   </si>
   <si>
     <t>&lt;&lt;&lt; ZFS mappings (UNVALIDATED) &gt;&gt;&gt;</t>
@@ -1435,6 +1432,9 @@
   </si>
   <si>
     <t>write</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; OSX/macOS mappings &gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -4180,8 +4180,8 @@
   <dimension ref="A1:AH192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <pane ySplit="3" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4197,7 +4197,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="290" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="291"/>
       <c r="C1" s="210">
@@ -4399,7 +4399,7 @@
     </row>
     <row r="3" spans="1:34" s="267" customFormat="1" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" s="269" t="s">
         <v>178</v>
@@ -4416,19 +4416,19 @@
       <c r="L3" s="271"/>
       <c r="M3" s="271"/>
       <c r="N3" s="273" t="s">
+        <v>299</v>
+      </c>
+      <c r="O3" s="270" t="s">
         <v>300</v>
       </c>
-      <c r="O3" s="270" t="s">
+      <c r="P3" s="271" t="s">
         <v>301</v>
       </c>
-      <c r="P3" s="271" t="s">
+      <c r="Q3" s="271" t="s">
         <v>302</v>
       </c>
-      <c r="Q3" s="271" t="s">
+      <c r="R3" s="272" t="s">
         <v>303</v>
-      </c>
-      <c r="R3" s="272" t="s">
-        <v>304</v>
       </c>
       <c r="S3" s="274"/>
       <c r="T3" s="275"/>
@@ -4436,37 +4436,37 @@
       <c r="V3" s="276"/>
       <c r="W3" s="274"/>
       <c r="X3" s="275" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y3" s="277" t="s">
         <v>305</v>
       </c>
-      <c r="Y3" s="277" t="s">
+      <c r="Z3" s="272" t="s">
         <v>306</v>
       </c>
-      <c r="Z3" s="272" t="s">
+      <c r="AA3" s="270" t="s">
         <v>307</v>
       </c>
-      <c r="AA3" s="270" t="s">
+      <c r="AB3" s="271" t="s">
         <v>308</v>
       </c>
-      <c r="AB3" s="271" t="s">
+      <c r="AC3" s="271" t="s">
         <v>309</v>
       </c>
-      <c r="AC3" s="271" t="s">
+      <c r="AD3" s="272" t="s">
         <v>310</v>
       </c>
-      <c r="AD3" s="272" t="s">
+      <c r="AE3" s="270" t="s">
         <v>311</v>
       </c>
-      <c r="AE3" s="270" t="s">
+      <c r="AF3" s="271" t="s">
         <v>312</v>
       </c>
-      <c r="AF3" s="271" t="s">
+      <c r="AG3" s="271" t="s">
         <v>313</v>
       </c>
-      <c r="AG3" s="271" t="s">
+      <c r="AH3" s="278" t="s">
         <v>314</v>
-      </c>
-      <c r="AH3" s="278" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="20" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4506,7 +4506,7 @@
     </row>
     <row r="5" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="132" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="118"/>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="7" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="88"/>
       <c r="C7" s="78"/>
@@ -4649,10 +4649,10 @@
       <c r="V7" s="156"/>
       <c r="W7" s="155"/>
       <c r="X7" s="156" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y7" s="156" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z7" s="81" t="s">
         <v>135</v>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="9" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="237" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" s="238"/>
       <c r="C9" s="239"/>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="11" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="118"/>
@@ -5447,7 +5447,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="34"/>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="43" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="136" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B43" s="114"/>
       <c r="C43" s="113"/>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="44" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="211" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B44" s="212"/>
       <c r="C44" s="213"/>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="91" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="132" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B91" s="133"/>
       <c r="C91" s="118"/>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="117" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="131" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="B117" s="121"/>
       <c r="C117" s="122"/>
@@ -9787,7 +9787,7 @@
     </row>
     <row r="121" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B121" s="97" t="s">
         <v>155</v>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="129" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B129" s="97" t="s">
         <v>171</v>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="139" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="131" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B139" s="121"/>
       <c r="C139" s="122"/>
@@ -11906,7 +11906,7 @@
     <row r="170" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="171" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="262" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B171" s="185"/>
       <c r="C171" s="118"/>
@@ -11944,7 +11944,7 @@
     </row>
     <row r="172" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B172" s="97" t="s">
         <v>169</v>
@@ -11988,7 +11988,7 @@
     </row>
     <row r="173" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B173" s="97" t="s">
         <v>169</v>
@@ -12032,7 +12032,7 @@
     </row>
     <row r="174" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B174" s="97" t="s">
         <v>155</v>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="176" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B176" s="97" t="s">
         <v>160</v>
@@ -12208,7 +12208,7 @@
     </row>
     <row r="178" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B178" s="97" t="s">
         <v>166</v>
@@ -12252,7 +12252,7 @@
     </row>
     <row r="179" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B179" s="97" t="s">
         <v>164</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="182" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B182" s="97" t="s">
         <v>167</v>
@@ -12428,7 +12428,7 @@
     </row>
     <row r="183" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B183" s="97" t="s">
         <v>163</v>
@@ -12472,7 +12472,7 @@
     </row>
     <row r="184" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B184" s="97" t="s">
         <v>179</v>
@@ -12500,7 +12500,7 @@
       <c r="W184" s="173"/>
       <c r="X184" s="174"/>
       <c r="Y184" s="174" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z184" s="66"/>
       <c r="AA184" s="39"/>
@@ -12514,10 +12514,10 @@
     </row>
     <row r="185" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B185" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C185" s="68"/>
       <c r="D185" s="40"/>
@@ -12541,7 +12541,7 @@
       <c r="V185" s="175"/>
       <c r="W185" s="173"/>
       <c r="X185" s="174" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y185" s="174"/>
       <c r="Z185" s="66"/>
@@ -12600,7 +12600,7 @@
     </row>
     <row r="187" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B187" s="97" t="s">
         <v>168</v>
@@ -12644,7 +12644,7 @@
     </row>
     <row r="188" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B188" s="97" t="s">
         <v>162</v>
@@ -12688,7 +12688,7 @@
     </row>
     <row r="189" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="68" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B189" s="97" t="s">
         <v>161</v>
@@ -12732,7 +12732,7 @@
     </row>
     <row r="190" spans="1:34" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="68" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B190" s="97" t="s">
         <v>165</v>
@@ -12812,7 +12812,7 @@
     </row>
     <row r="192" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="284" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N192" s="1" t="s">
         <v>287</v>
@@ -12897,7 +12897,7 @@
         <v>97</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>98</v>
@@ -13175,7 +13175,7 @@
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
@@ -13188,7 +13188,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">

--- a/doc/acl_decoder.xlsx
+++ b/doc/acl_decoder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsneed/Bobware/git/pwalk/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C06E91-551D-0B44-9CC7-BB895075FE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3379351-AE0F-614E-A0FF-8F721FAD6A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1740" yWindow="-19480" windowWidth="28800" windowHeight="17440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACL Permissions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="347">
   <si>
     <t>r</t>
   </si>
@@ -158,9 +160,6 @@
   </si>
   <si>
     <t>add_file - The right to create a file in the directory</t>
-  </si>
-  <si>
-    <t>add_subdir - The right to create a subdirectory</t>
   </si>
   <si>
     <t>delete_child - The right to delete children, including read-only files</t>
@@ -4180,8 +4179,8 @@
   <dimension ref="A1:AH192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
+      <pane ySplit="3" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4197,7 +4196,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="290" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B1" s="291"/>
       <c r="C1" s="210">
@@ -4399,10 +4398,10 @@
     </row>
     <row r="3" spans="1:34" s="267" customFormat="1" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3" s="269" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="270"/>
       <c r="D3" s="271"/>
@@ -4416,19 +4415,19 @@
       <c r="L3" s="271"/>
       <c r="M3" s="271"/>
       <c r="N3" s="273" t="s">
+        <v>298</v>
+      </c>
+      <c r="O3" s="270" t="s">
         <v>299</v>
       </c>
-      <c r="O3" s="270" t="s">
+      <c r="P3" s="271" t="s">
         <v>300</v>
       </c>
-      <c r="P3" s="271" t="s">
+      <c r="Q3" s="271" t="s">
         <v>301</v>
       </c>
-      <c r="Q3" s="271" t="s">
+      <c r="R3" s="272" t="s">
         <v>302</v>
-      </c>
-      <c r="R3" s="272" t="s">
-        <v>303</v>
       </c>
       <c r="S3" s="274"/>
       <c r="T3" s="275"/>
@@ -4436,37 +4435,37 @@
       <c r="V3" s="276"/>
       <c r="W3" s="274"/>
       <c r="X3" s="275" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y3" s="277" t="s">
         <v>304</v>
       </c>
-      <c r="Y3" s="277" t="s">
+      <c r="Z3" s="272" t="s">
         <v>305</v>
       </c>
-      <c r="Z3" s="272" t="s">
+      <c r="AA3" s="270" t="s">
         <v>306</v>
       </c>
-      <c r="AA3" s="270" t="s">
+      <c r="AB3" s="271" t="s">
         <v>307</v>
       </c>
-      <c r="AB3" s="271" t="s">
+      <c r="AC3" s="271" t="s">
         <v>308</v>
       </c>
-      <c r="AC3" s="271" t="s">
+      <c r="AD3" s="272" t="s">
         <v>309</v>
       </c>
-      <c r="AD3" s="272" t="s">
+      <c r="AE3" s="270" t="s">
         <v>310</v>
       </c>
-      <c r="AE3" s="270" t="s">
+      <c r="AF3" s="271" t="s">
         <v>311</v>
       </c>
-      <c r="AF3" s="271" t="s">
+      <c r="AG3" s="271" t="s">
         <v>312</v>
       </c>
-      <c r="AG3" s="271" t="s">
+      <c r="AH3" s="278" t="s">
         <v>313</v>
-      </c>
-      <c r="AH3" s="278" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="20" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4506,7 +4505,7 @@
     </row>
     <row r="5" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="132" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="118"/>
@@ -4544,7 +4543,7 @@
     </row>
     <row r="6" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="87"/>
       <c r="C6" s="54"/>
@@ -4579,10 +4578,10 @@
       <c r="V6" s="154"/>
       <c r="W6" s="153"/>
       <c r="X6" s="154" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y6" s="154" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z6" s="57" t="s">
         <v>7</v>
@@ -4614,7 +4613,7 @@
     </row>
     <row r="7" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B7" s="88"/>
       <c r="C7" s="78"/>
@@ -4629,7 +4628,7 @@
       <c r="L7" s="78"/>
       <c r="M7" s="78"/>
       <c r="N7" s="79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O7" s="80" t="s">
         <v>10</v>
@@ -4649,13 +4648,13 @@
       <c r="V7" s="156"/>
       <c r="W7" s="155"/>
       <c r="X7" s="156" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y7" s="156" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z7" s="81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA7" s="82" t="s">
         <v>1</v>
@@ -4667,13 +4666,13 @@
         <v>4</v>
       </c>
       <c r="AD7" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE7" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="AE7" s="84" t="s">
+      <c r="AF7" s="84" t="s">
         <v>137</v>
-      </c>
-      <c r="AF7" s="84" t="s">
-        <v>138</v>
       </c>
       <c r="AG7" s="78" t="s">
         <v>12</v>
@@ -4684,7 +4683,7 @@
     </row>
     <row r="8" spans="1:34" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="249" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="250"/>
       <c r="C8" s="251"/>
@@ -4699,7 +4698,7 @@
       <c r="L8" s="252"/>
       <c r="M8" s="252"/>
       <c r="N8" s="254" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O8" s="251" t="s">
         <v>10</v>
@@ -4719,13 +4718,13 @@
       <c r="V8" s="257"/>
       <c r="W8" s="255"/>
       <c r="X8" s="256" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y8" s="256" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z8" s="258" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA8" s="259" t="s">
         <v>1</v>
@@ -4737,13 +4736,13 @@
         <v>4</v>
       </c>
       <c r="AD8" s="253" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE8" s="259" t="s">
         <v>136</v>
       </c>
-      <c r="AE8" s="259" t="s">
+      <c r="AF8" s="260" t="s">
         <v>137</v>
-      </c>
-      <c r="AF8" s="260" t="s">
-        <v>138</v>
       </c>
       <c r="AG8" s="252" t="s">
         <v>12</v>
@@ -4754,7 +4753,7 @@
     </row>
     <row r="9" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="237" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B9" s="238"/>
       <c r="C9" s="239"/>
@@ -4769,16 +4768,16 @@
       <c r="L9" s="239"/>
       <c r="M9" s="239"/>
       <c r="N9" s="240" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O9" s="241" t="s">
+        <v>259</v>
+      </c>
+      <c r="P9" s="239" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q9" s="239" t="s">
         <v>260</v>
-      </c>
-      <c r="P9" s="239" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q9" s="239" t="s">
-        <v>261</v>
       </c>
       <c r="R9" s="239" t="s">
         <v>5</v>
@@ -4789,37 +4788,37 @@
       <c r="V9" s="243"/>
       <c r="W9" s="242"/>
       <c r="X9" s="243" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y9" s="243" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z9" s="244" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA9" s="245" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB9" s="239" t="s">
         <v>268</v>
       </c>
-      <c r="AA9" s="245" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB9" s="239" t="s">
-        <v>269</v>
-      </c>
       <c r="AC9" s="239" t="s">
         <v>31</v>
       </c>
       <c r="AD9" s="246" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AE9" s="247" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF9" s="247" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG9" s="239" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH9" s="248" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:34" s="233" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4860,7 +4859,7 @@
     </row>
     <row r="11" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="118"/>
@@ -4901,7 +4900,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -4943,7 +4942,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
@@ -4985,7 +4984,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -5027,7 +5026,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -5069,7 +5068,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -5111,7 +5110,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -5153,7 +5152,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -5195,7 +5194,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -5237,7 +5236,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
@@ -5279,7 +5278,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -5321,7 +5320,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
@@ -5363,7 +5362,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -5402,10 +5401,10 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="30"/>
@@ -5444,10 +5443,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="34"/>
@@ -5489,7 +5488,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
@@ -5529,7 +5528,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
@@ -5571,7 +5570,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -5613,7 +5612,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -5655,7 +5654,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -5730,7 +5729,7 @@
     </row>
     <row r="32" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="135" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="133"/>
       <c r="C32" s="118"/>
@@ -5804,7 +5803,7 @@
     </row>
     <row r="34" spans="1:34" s="108" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="182" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="118"/>
@@ -5842,10 +5841,10 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" s="86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -5896,10 +5895,10 @@
     </row>
     <row r="36" spans="1:34" s="108" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" s="93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
@@ -5946,10 +5945,10 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -6002,10 +6001,10 @@
     </row>
     <row r="38" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" s="109" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -6058,10 +6057,10 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B39" s="109" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -6116,10 +6115,10 @@
     </row>
     <row r="40" spans="1:34" s="108" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
@@ -6170,10 +6169,10 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B41" s="86" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -6222,10 +6221,10 @@
     </row>
     <row r="42" spans="1:34" s="108" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" s="93" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
@@ -6270,7 +6269,7 @@
     </row>
     <row r="43" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="136" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43" s="114"/>
       <c r="C43" s="113"/>
@@ -6287,7 +6286,7 @@
       <c r="N43" s="115"/>
       <c r="O43" s="217"/>
       <c r="P43" s="218" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q43" s="218"/>
       <c r="R43" s="219"/>
@@ -6299,7 +6298,7 @@
       <c r="X43" s="207"/>
       <c r="Y43" s="207"/>
       <c r="Z43" s="222" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA43" s="221"/>
       <c r="AB43" s="207"/>
@@ -6312,7 +6311,7 @@
     </row>
     <row r="44" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="211" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B44" s="212"/>
       <c r="C44" s="213"/>
@@ -6328,12 +6327,12 @@
       <c r="M44" s="214"/>
       <c r="N44" s="216"/>
       <c r="O44" s="196" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P44" s="220"/>
       <c r="Q44" s="220"/>
       <c r="R44" s="198" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S44" s="223"/>
       <c r="T44" s="224"/>
@@ -6389,7 +6388,7 @@
     </row>
     <row r="46" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="182" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="133"/>
       <c r="C46" s="118"/>
@@ -6427,10 +6426,10 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="29"/>
@@ -6472,7 +6471,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -6514,7 +6513,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -6553,10 +6552,10 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="29"/>
@@ -6594,12 +6593,8 @@
       <c r="AH50" s="13"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="86" t="s">
-        <v>160</v>
-      </c>
+      <c r="A51" s="17"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -6611,7 +6606,9 @@
       <c r="K51" s="8"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="48"/>
+      <c r="N51" s="48" t="s">
+        <v>271</v>
+      </c>
       <c r="O51" s="8"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
@@ -6629,18 +6626,16 @@
       <c r="AC51" s="9"/>
       <c r="AD51" s="10"/>
       <c r="AE51" s="8"/>
-      <c r="AF51" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF51" s="9"/>
       <c r="AG51" s="9"/>
       <c r="AH51" s="10"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="29"/>
@@ -6679,10 +6674,10 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -6721,10 +6716,10 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="29"/>
@@ -6763,10 +6758,10 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -6805,10 +6800,10 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="29"/>
@@ -6847,10 +6842,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="29"/>
@@ -6889,10 +6884,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="9"/>
@@ -6931,10 +6926,10 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9"/>
@@ -6973,10 +6968,10 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="29"/>
@@ -7015,10 +7010,10 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B61" s="86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
@@ -7057,10 +7052,10 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" s="86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="29"/>
@@ -7099,10 +7094,10 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" s="86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
@@ -7141,10 +7136,10 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64" s="86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="29"/>
@@ -7186,7 +7181,7 @@
         <v>36</v>
       </c>
       <c r="B65" s="86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
@@ -7228,7 +7223,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
@@ -7270,7 +7265,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
@@ -7312,7 +7307,7 @@
         <v>39</v>
       </c>
       <c r="B68" s="86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
@@ -7354,7 +7349,7 @@
         <v>40</v>
       </c>
       <c r="B69" s="86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
@@ -7393,10 +7388,10 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
@@ -7476,7 +7471,7 @@
     </row>
     <row r="72" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="183" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B72" s="133"/>
       <c r="C72" s="118"/>
@@ -7514,10 +7509,10 @@
     </row>
     <row r="73" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
@@ -7577,7 +7572,7 @@
         <v>35</v>
       </c>
       <c r="B74" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="9"/>
@@ -7621,7 +7616,7 @@
         <v>33</v>
       </c>
       <c r="B75" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
@@ -7669,7 +7664,7 @@
         <v>34</v>
       </c>
       <c r="B76" s="93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
@@ -7716,10 +7711,10 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B77" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -7762,10 +7757,10 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B78" s="86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="9"/>
@@ -7808,10 +7803,10 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" s="93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
@@ -7842,7 +7837,7 @@
       <c r="Y79" s="164"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB79" s="6"/>
       <c r="AC79" s="6" t="s">
@@ -7856,10 +7851,10 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80" s="92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -7906,10 +7901,10 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" s="86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9"/>
@@ -7956,10 +7951,10 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
@@ -7996,7 +7991,7 @@
       <c r="AC82" s="6"/>
       <c r="AD82" s="7"/>
       <c r="AE82" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF82" s="6"/>
       <c r="AG82" s="6"/>
@@ -8006,10 +8001,10 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B83" s="92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -8058,10 +8053,10 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B84" s="86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9"/>
@@ -8110,10 +8105,10 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" s="93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
@@ -8131,7 +8126,7 @@
       </c>
       <c r="O85" s="8"/>
       <c r="P85" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q85" s="6" t="s">
         <v>31</v>
@@ -8151,7 +8146,7 @@
       <c r="AB85" s="6"/>
       <c r="AC85" s="6"/>
       <c r="AD85" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE85" s="5"/>
       <c r="AF85" s="6" t="s">
@@ -8164,10 +8159,10 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B86" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -8232,10 +8227,10 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B87" s="86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -8303,7 +8298,7 @@
         <v>32</v>
       </c>
       <c r="B88" s="93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="6"/>
@@ -8368,10 +8363,10 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B89" s="94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" s="26"/>
       <c r="D89" s="25"/>
@@ -8459,7 +8454,7 @@
     </row>
     <row r="91" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="132" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B91" s="133"/>
       <c r="C91" s="118"/>
@@ -8533,7 +8528,7 @@
     </row>
     <row r="93" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="231" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93" s="232"/>
       <c r="C93" s="118"/>
@@ -8571,10 +8566,10 @@
     </row>
     <row r="94" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="9"/>
@@ -8600,17 +8595,17 @@
       <c r="X94" s="158"/>
       <c r="Y94" s="158"/>
       <c r="Z94" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA94" s="8"/>
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
       <c r="AD94" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE94" s="8"/>
       <c r="AF94" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG94" s="9" t="s">
         <v>12</v>
@@ -8619,10 +8614,10 @@
     </row>
     <row r="95" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" s="96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="9"/>
@@ -8657,7 +8652,7 @@
       <c r="AC95" s="9"/>
       <c r="AD95" s="10"/>
       <c r="AE95" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF95" s="9"/>
       <c r="AG95" s="9"/>
@@ -8667,10 +8662,10 @@
     </row>
     <row r="96" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B96" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="9"/>
@@ -8684,7 +8679,7 @@
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
       <c r="N96" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O96" s="8"/>
       <c r="P96" s="9"/>
@@ -8702,7 +8697,7 @@
       <c r="X96" s="158"/>
       <c r="Y96" s="158"/>
       <c r="Z96" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA96" s="8" t="s">
         <v>1</v>
@@ -8714,13 +8709,13 @@
         <v>4</v>
       </c>
       <c r="AD96" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE96" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AE96" s="8" t="s">
+      <c r="AF96" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="AF96" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="AG96" s="9" t="s">
         <v>12</v>
@@ -8731,10 +8726,10 @@
     </row>
     <row r="97" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B97" s="96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="9"/>
@@ -8748,7 +8743,7 @@
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
       <c r="N97" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O97" s="8" t="s">
         <v>10</v>
@@ -8770,7 +8765,7 @@
       <c r="X97" s="158"/>
       <c r="Y97" s="158"/>
       <c r="Z97" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA97" s="8" t="s">
         <v>1</v>
@@ -8782,13 +8777,13 @@
         <v>4</v>
       </c>
       <c r="AD97" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE97" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AE97" s="8" t="s">
+      <c r="AF97" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="AF97" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="AG97" s="9" t="s">
         <v>12</v>
@@ -8799,11 +8794,11 @@
     </row>
     <row r="98" spans="1:34" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="226" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B98" s="227"/>
       <c r="C98" s="226" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D98" s="117"/>
       <c r="E98" s="117"/>
@@ -8839,13 +8834,13 @@
     </row>
     <row r="99" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B99" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C99" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D99" s="40"/>
       <c r="E99" s="40"/>
@@ -8883,13 +8878,13 @@
     </row>
     <row r="100" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B100" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C100" s="68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D100" s="40"/>
       <c r="E100" s="40"/>
@@ -8927,13 +8922,13 @@
     </row>
     <row r="101" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B101" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C101" s="68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
@@ -8971,13 +8966,13 @@
     </row>
     <row r="102" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B102" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="40"/>
@@ -9015,13 +9010,13 @@
     </row>
     <row r="103" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B103" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C103" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D103" s="40"/>
       <c r="E103" s="40"/>
@@ -9052,20 +9047,20 @@
       <c r="AD103" s="66"/>
       <c r="AE103" s="39"/>
       <c r="AF103" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG103" s="40"/>
       <c r="AH103" s="66"/>
     </row>
     <row r="104" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B104" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C104" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D104" s="40"/>
       <c r="E104" s="40"/>
@@ -9096,20 +9091,20 @@
       <c r="AD104" s="66"/>
       <c r="AE104" s="39"/>
       <c r="AF104" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG104" s="40"/>
       <c r="AH104" s="66"/>
     </row>
     <row r="105" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B105" s="97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C105" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D105" s="40"/>
       <c r="E105" s="40"/>
@@ -9139,7 +9134,7 @@
       <c r="AC105" s="40"/>
       <c r="AD105" s="66"/>
       <c r="AE105" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF105" s="40"/>
       <c r="AG105" s="40"/>
@@ -9147,13 +9142,13 @@
     </row>
     <row r="106" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B106" s="97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C106" s="68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="40"/>
@@ -9182,7 +9177,7 @@
       <c r="AB106" s="40"/>
       <c r="AC106" s="40"/>
       <c r="AD106" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE106" s="39"/>
       <c r="AF106" s="40"/>
@@ -9191,13 +9186,13 @@
     </row>
     <row r="107" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B107" s="97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C107" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D107" s="40"/>
       <c r="E107" s="40"/>
@@ -9235,13 +9230,13 @@
     </row>
     <row r="108" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B108" s="97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C108" s="69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D108" s="40"/>
       <c r="E108" s="40"/>
@@ -9279,13 +9274,13 @@
     </row>
     <row r="109" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B109" s="97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C109" s="68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="40"/>
@@ -9323,13 +9318,13 @@
     </row>
     <row r="110" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B110" s="97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C110" s="68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="40"/>
@@ -9354,7 +9349,7 @@
       <c r="X110" s="174"/>
       <c r="Y110" s="174"/>
       <c r="Z110" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA110" s="39"/>
       <c r="AB110" s="40"/>
@@ -9367,13 +9362,13 @@
     </row>
     <row r="111" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B111" s="97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C111" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D111" s="40"/>
       <c r="E111" s="40"/>
@@ -9411,13 +9406,13 @@
     </row>
     <row r="112" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B112" s="97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C112" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D112" s="40"/>
       <c r="E112" s="40"/>
@@ -9455,13 +9450,13 @@
     </row>
     <row r="113" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113" s="97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C113" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D113" s="40"/>
       <c r="E113" s="40"/>
@@ -9499,13 +9494,13 @@
     </row>
     <row r="114" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B114" s="97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C114" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D114" s="40"/>
       <c r="E114" s="40"/>
@@ -9543,13 +9538,13 @@
     </row>
     <row r="115" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B115" s="97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C115" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D115" s="40"/>
       <c r="E115" s="40"/>
@@ -9562,7 +9557,7 @@
       <c r="L115" s="40"/>
       <c r="M115" s="40"/>
       <c r="N115" s="67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O115" s="39"/>
       <c r="P115" s="40"/>
@@ -9623,7 +9618,7 @@
     </row>
     <row r="117" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="131" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B117" s="121"/>
       <c r="C117" s="122"/>
@@ -9661,7 +9656,7 @@
     </row>
     <row r="118" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B118" s="127"/>
       <c r="C118" s="128"/>
@@ -9699,13 +9694,13 @@
     </row>
     <row r="119" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B119" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C119" s="68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D119" s="40"/>
       <c r="E119" s="40"/>
@@ -9743,13 +9738,13 @@
     </row>
     <row r="120" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B120" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C120" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D120" s="40"/>
       <c r="E120" s="40"/>
@@ -9787,13 +9782,13 @@
     </row>
     <row r="121" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B121" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C121" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D121" s="40"/>
       <c r="E121" s="40"/>
@@ -9831,13 +9826,13 @@
     </row>
     <row r="122" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B122" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C122" s="68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D122" s="40"/>
       <c r="E122" s="40"/>
@@ -9875,13 +9870,13 @@
     </row>
     <row r="123" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B123" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D123" s="40"/>
       <c r="E123" s="40"/>
@@ -9919,13 +9914,13 @@
     </row>
     <row r="124" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B124" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C124" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D124" s="40"/>
       <c r="E124" s="40"/>
@@ -9963,13 +9958,13 @@
     </row>
     <row r="125" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B125" s="97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C125" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D125" s="40"/>
       <c r="E125" s="40"/>
@@ -10007,13 +10002,13 @@
     </row>
     <row r="126" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B126" s="97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C126" s="68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D126" s="40"/>
       <c r="E126" s="40"/>
@@ -10051,13 +10046,13 @@
     </row>
     <row r="127" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B127" s="97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C127" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D127" s="40"/>
       <c r="E127" s="40"/>
@@ -10095,13 +10090,13 @@
     </row>
     <row r="128" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B128" s="97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C128" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D128" s="40"/>
       <c r="E128" s="40"/>
@@ -10139,13 +10134,13 @@
     </row>
     <row r="129" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B129" s="97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C129" s="69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D129" s="40"/>
       <c r="E129" s="40"/>
@@ -10183,13 +10178,13 @@
     </row>
     <row r="130" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B130" s="97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C130" s="68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D130" s="40"/>
       <c r="E130" s="40"/>
@@ -10227,13 +10222,13 @@
     </row>
     <row r="131" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B131" s="97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C131" s="68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D131" s="40"/>
       <c r="E131" s="40"/>
@@ -10271,13 +10266,13 @@
     </row>
     <row r="132" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B132" s="97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C132" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D132" s="40"/>
       <c r="E132" s="40"/>
@@ -10315,13 +10310,13 @@
     </row>
     <row r="133" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B133" s="97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C133" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D133" s="40"/>
       <c r="E133" s="40"/>
@@ -10359,13 +10354,13 @@
     </row>
     <row r="134" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B134" s="97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C134" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D134" s="40"/>
       <c r="E134" s="40"/>
@@ -10403,13 +10398,13 @@
     </row>
     <row r="135" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B135" s="97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C135" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D135" s="40"/>
       <c r="E135" s="40"/>
@@ -10447,13 +10442,13 @@
     </row>
     <row r="136" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B136" s="97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C136" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D136" s="40"/>
       <c r="E136" s="40"/>
@@ -10563,7 +10558,7 @@
     </row>
     <row r="139" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="131" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B139" s="121"/>
       <c r="C139" s="122"/>
@@ -10601,7 +10596,7 @@
     </row>
     <row r="140" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="126" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B140" s="127"/>
       <c r="C140" s="128"/>
@@ -10675,7 +10670,7 @@
     </row>
     <row r="142" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="184" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B142" s="185"/>
       <c r="C142" s="118"/>
@@ -10713,10 +10708,10 @@
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A143" s="73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" s="98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="9"/>
@@ -10757,10 +10752,10 @@
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A144" s="73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B144" s="98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="9"/>
@@ -10805,10 +10800,10 @@
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A145" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B145" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="9"/>
@@ -10855,10 +10850,10 @@
     </row>
     <row r="146" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A146" s="73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B146" s="98" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="9"/>
@@ -10907,10 +10902,10 @@
     </row>
     <row r="147" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A147" s="101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B147" s="102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="6"/>
@@ -10967,10 +10962,10 @@
     </row>
     <row r="148" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A148" s="73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B148" s="98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -11017,10 +11012,10 @@
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A149" s="73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B149" s="98" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="9"/>
@@ -11069,10 +11064,10 @@
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A150" s="73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B150" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="9"/>
@@ -11089,10 +11084,10 @@
         <v>31</v>
       </c>
       <c r="O150" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P150" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q150" s="9" t="s">
         <v>31</v>
@@ -11135,10 +11130,10 @@
     </row>
     <row r="151" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B151" s="98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="9"/>
@@ -11203,7 +11198,7 @@
     </row>
     <row r="152" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="186" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B152" s="187"/>
       <c r="C152" s="118"/>
@@ -11241,10 +11236,10 @@
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A153" s="73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" s="98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="9"/>
@@ -11278,15 +11273,15 @@
       <c r="AF153" s="9"/>
       <c r="AG153" s="9"/>
       <c r="AH153" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A154" s="73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" s="98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="9"/>
@@ -11319,16 +11314,16 @@
       <c r="AE154" s="8"/>
       <c r="AF154" s="9"/>
       <c r="AG154" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH154" s="10"/>
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A155" s="73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" s="98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="9"/>
@@ -11360,17 +11355,17 @@
       <c r="AD155" s="10"/>
       <c r="AE155" s="8"/>
       <c r="AF155" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG155" s="9"/>
       <c r="AH155" s="10"/>
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A156" s="73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" s="98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="9"/>
@@ -11401,7 +11396,7 @@
       <c r="AC156" s="9"/>
       <c r="AD156" s="10"/>
       <c r="AE156" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF156" s="9"/>
       <c r="AG156" s="9"/>
@@ -11409,10 +11404,10 @@
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A157" s="73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" s="98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="9"/>
@@ -11442,7 +11437,7 @@
       <c r="AB157" s="9"/>
       <c r="AC157" s="9"/>
       <c r="AD157" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AE157" s="8"/>
       <c r="AF157" s="9"/>
@@ -11451,10 +11446,10 @@
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A158" s="73" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" s="98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="9"/>
@@ -11493,10 +11488,10 @@
     </row>
     <row r="159" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" s="97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="9"/>
@@ -11524,7 +11519,7 @@
       <c r="Z159" s="10"/>
       <c r="AA159" s="8"/>
       <c r="AB159" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AC159" s="9"/>
       <c r="AD159" s="10"/>
@@ -11535,10 +11530,10 @@
     </row>
     <row r="160" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="73" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" s="97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="9"/>
@@ -11565,7 +11560,7 @@
       <c r="Y160" s="158"/>
       <c r="Z160" s="10"/>
       <c r="AA160" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB160" s="9"/>
       <c r="AC160" s="9"/>
@@ -11577,10 +11572,10 @@
     </row>
     <row r="161" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" s="97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="9"/>
@@ -11606,7 +11601,7 @@
       <c r="X161" s="158"/>
       <c r="Y161" s="158"/>
       <c r="Z161" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA161" s="8"/>
       <c r="AB161" s="9"/>
@@ -11619,10 +11614,10 @@
     </row>
     <row r="162" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B162" s="97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="9"/>
@@ -11661,10 +11656,10 @@
     </row>
     <row r="163" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B163" s="97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="9"/>
@@ -11681,7 +11676,7 @@
       <c r="O163" s="8"/>
       <c r="P163" s="9"/>
       <c r="Q163" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R163" s="10"/>
       <c r="S163" s="157"/>
@@ -11703,10 +11698,10 @@
     </row>
     <row r="164" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B164" s="97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="9"/>
@@ -11722,7 +11717,7 @@
       <c r="N164" s="48"/>
       <c r="O164" s="8"/>
       <c r="P164" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q164" s="9"/>
       <c r="R164" s="10"/>
@@ -11745,10 +11740,10 @@
     </row>
     <row r="165" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B165" s="97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C165" s="8"/>
       <c r="D165" s="9"/>
@@ -11763,7 +11758,7 @@
       <c r="M165" s="9"/>
       <c r="N165" s="48"/>
       <c r="O165" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P165" s="9"/>
       <c r="Q165" s="9"/>
@@ -11787,10 +11782,10 @@
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A166" s="74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B166" s="99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="6"/>
@@ -11804,7 +11799,7 @@
       <c r="L166" s="6"/>
       <c r="M166" s="6"/>
       <c r="N166" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O166" s="5"/>
       <c r="P166" s="6"/>
@@ -11829,7 +11824,7 @@
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" s="75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B167" s="100"/>
       <c r="C167" s="2"/>
@@ -11867,7 +11862,7 @@
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A168" s="76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B168" s="99"/>
       <c r="C168" s="5"/>
@@ -11906,7 +11901,7 @@
     <row r="170" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="171" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="262" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B171" s="185"/>
       <c r="C171" s="118"/>
@@ -11944,13 +11939,13 @@
     </row>
     <row r="172" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B172" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C172" s="68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D172" s="40"/>
       <c r="E172" s="40"/>
@@ -11988,13 +11983,13 @@
     </row>
     <row r="173" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B173" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C173" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D173" s="40"/>
       <c r="E173" s="40"/>
@@ -12032,13 +12027,13 @@
     </row>
     <row r="174" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B174" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C174" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D174" s="40"/>
       <c r="E174" s="40"/>
@@ -12076,13 +12071,13 @@
     </row>
     <row r="175" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B175" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C175" s="68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D175" s="40"/>
       <c r="E175" s="40"/>
@@ -12120,13 +12115,13 @@
     </row>
     <row r="176" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B176" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C176" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D176" s="40"/>
       <c r="E176" s="40"/>
@@ -12157,20 +12152,20 @@
       <c r="AD176" s="66"/>
       <c r="AE176" s="39"/>
       <c r="AF176" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG176" s="40"/>
       <c r="AH176" s="66"/>
     </row>
     <row r="177" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B177" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C177" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D177" s="40"/>
       <c r="E177" s="40"/>
@@ -12201,20 +12196,20 @@
       <c r="AD177" s="66"/>
       <c r="AE177" s="39"/>
       <c r="AF177" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG177" s="40"/>
       <c r="AH177" s="66"/>
     </row>
     <row r="178" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B178" s="97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C178" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D178" s="40"/>
       <c r="E178" s="40"/>
@@ -12244,7 +12239,7 @@
       <c r="AC178" s="40"/>
       <c r="AD178" s="66"/>
       <c r="AE178" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF178" s="40"/>
       <c r="AG178" s="40"/>
@@ -12252,13 +12247,13 @@
     </row>
     <row r="179" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B179" s="97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C179" s="68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D179" s="40"/>
       <c r="E179" s="40"/>
@@ -12287,7 +12282,7 @@
       <c r="AB179" s="40"/>
       <c r="AC179" s="40"/>
       <c r="AD179" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE179" s="39"/>
       <c r="AF179" s="40"/>
@@ -12296,13 +12291,13 @@
     </row>
     <row r="180" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B180" s="97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C180" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D180" s="40"/>
       <c r="E180" s="40"/>
@@ -12340,13 +12335,13 @@
     </row>
     <row r="181" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B181" s="97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C181" s="69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D181" s="40"/>
       <c r="E181" s="40"/>
@@ -12384,13 +12379,13 @@
     </row>
     <row r="182" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B182" s="97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C182" s="68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D182" s="40"/>
       <c r="E182" s="40"/>
@@ -12428,13 +12423,13 @@
     </row>
     <row r="183" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B183" s="97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C183" s="68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D183" s="40"/>
       <c r="E183" s="40"/>
@@ -12459,7 +12454,7 @@
       <c r="X183" s="174"/>
       <c r="Y183" s="174"/>
       <c r="Z183" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA183" s="39"/>
       <c r="AB183" s="40"/>
@@ -12472,10 +12467,10 @@
     </row>
     <row r="184" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B184" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C184" s="68"/>
       <c r="D184" s="40"/>
@@ -12500,7 +12495,7 @@
       <c r="W184" s="173"/>
       <c r="X184" s="174"/>
       <c r="Y184" s="174" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z184" s="66"/>
       <c r="AA184" s="39"/>
@@ -12514,10 +12509,10 @@
     </row>
     <row r="185" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B185" s="97" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C185" s="68"/>
       <c r="D185" s="40"/>
@@ -12541,7 +12536,7 @@
       <c r="V185" s="175"/>
       <c r="W185" s="173"/>
       <c r="X185" s="174" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y185" s="174"/>
       <c r="Z185" s="66"/>
@@ -12556,13 +12551,13 @@
     </row>
     <row r="186" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B186" s="97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C186" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D186" s="40"/>
       <c r="E186" s="40"/>
@@ -12600,13 +12595,13 @@
     </row>
     <row r="187" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="68" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B187" s="97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C187" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D187" s="40"/>
       <c r="E187" s="40"/>
@@ -12644,13 +12639,13 @@
     </row>
     <row r="188" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="68" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B188" s="97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C188" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D188" s="40"/>
       <c r="E188" s="40"/>
@@ -12688,13 +12683,13 @@
     </row>
     <row r="189" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B189" s="97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C189" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D189" s="40"/>
       <c r="E189" s="40"/>
@@ -12732,13 +12727,13 @@
     </row>
     <row r="190" spans="1:34" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B190" s="97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C190" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D190" s="40"/>
       <c r="E190" s="40"/>
@@ -12751,7 +12746,7 @@
       <c r="L190" s="40"/>
       <c r="M190" s="40"/>
       <c r="N190" s="281" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O190" s="39"/>
       <c r="P190" s="40"/>
@@ -12812,16 +12807,16 @@
     </row>
     <row r="192" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="284" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q192" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA192" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -12854,7 +12849,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12885,77 +12880,77 @@
     </row>
     <row r="2" spans="1:11" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" s="42" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="279" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" s="71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="44" t="s">
         <v>8</v>
@@ -12967,27 +12962,27 @@
         <v>8</v>
       </c>
       <c r="G4" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I4" s="71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>2</v>
@@ -12999,183 +12994,183 @@
         <v>2</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>86</v>
-      </c>
       <c r="E6" s="279" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="285" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="286" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="286" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="286" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="287" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="286" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="288" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="288" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="288" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="289" t="s">
         <v>89</v>
-      </c>
-      <c r="E7" s="287" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="286" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="288" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="288" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="288" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="289" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="285" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="286" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="286" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="286" t="s">
-        <v>128</v>
-      </c>
       <c r="D8" s="286" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="287" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="286" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="288" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="288" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="288" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="289" t="s">
         <v>92</v>
-      </c>
-      <c r="E8" s="287" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="286" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="288" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="288" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="288" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="289" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="279" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>105</v>
       </c>
       <c r="E10" s="279" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="45" t="s">
         <v>95</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="45" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
@@ -13188,7 +13183,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
